--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1043,7 +1043,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A person-centered care plan SHALL reference a person-centered goal and SHALL include action steps that support progress toward achievement of the plan’s goals and desired outcomes. A plan SHOULD address the person’s stated priorities for what matters most to them. Action steps may include both treatment procedures and self-care steps identified by the person.</t>
+    <t>A person-centered care plan SHALL reference a person-centered goal and SHALL include action steps that support progress toward achievement of the plan's goals and desired outcomes. A plan SHOULD address the person's stated priorities for what matters most to them. Action steps may include both treatment procedures and self-care steps identified by the person.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
@@ -1939,7 +1942,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4773,11 +4776,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4824,10 +4829,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4853,10 +4858,10 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4907,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4936,10 +4941,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4965,14 +4970,14 @@
         <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5021,7 +5026,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5042,7 +5047,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5050,14 +5055,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5076,17 +5081,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5135,7 +5140,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5150,24 +5155,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5190,16 +5195,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5249,7 +5254,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5264,28 +5269,28 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5304,19 +5309,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5365,7 +5370,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5380,28 +5385,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5420,13 +5425,13 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5477,7 +5482,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5492,13 +5497,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5506,10 +5511,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5532,16 +5537,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5591,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5606,13 +5611,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5620,10 +5625,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5646,16 +5651,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5705,7 +5710,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5734,10 +5739,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5760,17 +5765,17 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5819,7 +5824,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5834,13 +5839,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5848,10 +5853,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5874,19 +5879,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5935,7 +5940,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5950,24 +5955,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5990,19 +5995,19 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6051,7 +6056,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6066,7 +6071,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6080,10 +6085,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6106,19 +6111,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6167,7 +6172,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6185,21 +6190,21 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6222,17 +6227,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6281,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6293,13 +6298,13 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6310,10 +6315,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6422,10 +6427,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6536,14 +6541,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6565,10 +6570,10 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>135</v>
@@ -6623,7 +6628,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6652,10 +6657,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6681,13 +6686,13 @@
         <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6716,10 +6721,10 @@
         <v>233</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6737,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6766,10 +6771,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6792,19 +6797,19 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6853,7 +6858,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6868,10 +6873,10 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6882,10 +6887,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6908,19 +6913,19 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6969,7 +6974,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6987,21 +6992,21 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7024,19 +7029,19 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7090,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7094,16 +7099,16 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7114,10 +7119,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7140,17 +7145,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7199,7 +7204,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7208,7 +7213,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
@@ -7217,7 +7222,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7228,10 +7233,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7340,10 +7345,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7454,14 +7459,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7483,10 +7488,10 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>135</v>
@@ -7541,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7570,10 +7575,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7599,14 +7604,14 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7634,10 +7639,10 @@
         <v>144</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7660,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7673,7 +7678,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7684,10 +7689,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7710,17 +7715,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>183</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7769,7 +7774,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7798,10 +7803,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7830,13 +7835,13 @@
         <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>190</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7885,7 +7890,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7914,10 +7919,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7943,16 +7948,16 @@
         <v>228</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7980,10 +7985,10 @@
         <v>233</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8001,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8016,24 +8021,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8059,13 +8064,13 @@
         <v>228</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8094,10 +8099,10 @@
         <v>233</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8115,7 +8120,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8130,7 +8135,7 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8144,10 +8149,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8170,16 +8175,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8229,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8244,7 +8249,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8258,10 +8263,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8284,17 +8289,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8343,7 +8348,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8361,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8372,10 +8377,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8401,16 +8406,16 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8438,10 +8443,10 @@
         <v>144</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8459,7 +8464,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>88</v>
@@ -8474,24 +8479,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8517,13 +8522,13 @@
         <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8573,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8588,7 +8593,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8602,10 +8607,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8628,70 +8633,70 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8706,10 +8711,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8720,10 +8725,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8746,17 +8751,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8805,7 +8810,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8820,24 +8825,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8860,19 +8865,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8921,7 +8926,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8939,21 +8944,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8976,19 +8981,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9037,7 +9042,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9052,24 +9057,24 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9092,13 +9097,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9128,10 +9133,10 @@
         <v>233</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9149,7 +9154,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9167,25 +9172,25 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9204,17 +9209,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9263,7 +9268,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9281,21 +9286,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9318,13 +9323,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9375,7 +9380,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9393,21 +9398,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9433,10 +9438,10 @@
         <v>125</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9487,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9505,21 +9510,21 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9542,17 +9547,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9601,7 +9606,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9616,16 +9621,16 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-care-plan</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-plan</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -786,7 +786,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>CarePlan.title</t>
@@ -1046,7 +1046,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile)
 </t>
   </si>
   <si>
@@ -1943,7 +1943,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.69921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,21 +774,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>CarePlan.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
-  </si>
-  <si>
-    <t>Person-Centered Outcome category</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
-  </si>
-  <si>
     <t>CarePlan.title</t>
   </si>
   <si>
@@ -1046,6 +1031,38 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Goal)
+</t>
+  </si>
+  <si>
+    <t>Desired outcome of plan</t>
+  </si>
+  <si>
+    <t>Describes the intended objective(s) of carrying out the care plan.</t>
+  </si>
+  <si>
+    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
+  </si>
+  <si>
+    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
+  </si>
+  <si>
+    <t>GOL.1</t>
+  </si>
+  <si>
+    <t>CarePlan.goal:SupportedGoals</t>
+  </si>
+  <si>
+    <t>SupportedGoals</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile)
 </t>
   </si>
@@ -1053,21 +1070,6 @@
     <t>Person-centered goals supported by this plan</t>
   </si>
   <si>
-    <t>Describes the intended objective(s) of carrying out the care plan.</t>
-  </si>
-  <si>
-    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
-  </si>
-  <si>
-    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
-  </si>
-  <si>
-    <t>GOL.1</t>
-  </si>
-  <si>
     <t>CarePlan.activity</t>
   </si>
   <si>
@@ -1341,10 +1343,6 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Goal)
-</t>
   </si>
   <si>
     <t>Goals this activity relates to</t>
@@ -1920,7 +1918,7 @@
   <cols>
     <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1942,7 +1940,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.69921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4714,11 +4712,9 @@
         <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4727,10 +4723,10 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -4739,20 +4735,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4776,13 +4768,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4800,13 +4792,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4821,7 +4813,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4829,10 +4821,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4858,13 +4850,15 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4933,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4948,17 +4942,17 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -4967,17 +4961,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5029,7 +5023,7 @@
         <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5041,38 +5035,38 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5081,18 +5075,18 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5140,10 +5134,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5155,28 +5149,28 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5195,18 +5189,20 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5269,28 +5265,28 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5309,20 +5305,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5370,7 +5362,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5385,28 +5377,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5425,15 +5417,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5482,7 +5476,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5497,13 +5491,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5511,10 +5505,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5525,7 +5519,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5534,19 +5528,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5596,13 +5590,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5611,13 +5605,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5625,10 +5619,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5651,7 +5645,7 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>300</v>
@@ -5659,10 +5653,10 @@
       <c r="M33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5710,7 +5704,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5725,13 +5719,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5739,10 +5733,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5762,20 +5756,22 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5824,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5839,24 +5835,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5876,22 +5872,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5940,7 +5936,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5955,24 +5951,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5980,13 +5976,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -5995,19 +5991,19 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6044,19 +6040,17 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6071,26 +6065,28 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6111,19 +6107,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6172,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6190,13 +6186,13 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -6797,7 +6793,7 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>357</v>
@@ -8249,7 +8245,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8289,17 +8285,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8366,7 +8362,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8377,10 +8373,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8406,16 +8402,16 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8443,11 +8439,11 @@
         <v>144</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>88</v>
@@ -8479,24 +8475,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8522,13 +8518,13 @@
         <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8578,7 +8574,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8593,7 +8589,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8607,10 +8603,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8633,26 +8629,26 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="O59" t="s" s="2">
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="P59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="R59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8696,7 +8692,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8711,10 +8707,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8725,10 +8721,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8751,17 +8747,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8810,7 +8806,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8825,24 +8821,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8865,19 +8861,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8926,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8944,21 +8940,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8981,19 +8977,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9042,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9057,24 +9053,24 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9097,13 +9093,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9133,11 +9129,11 @@
         <v>233</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9154,7 +9150,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9172,25 +9168,25 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9209,17 +9205,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9268,7 +9264,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9286,21 +9282,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9323,13 +9319,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9380,7 +9376,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9398,21 +9394,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9438,10 +9434,10 @@
         <v>125</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9492,7 +9488,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9510,7 +9506,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9521,10 +9517,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9550,14 +9546,14 @@
         <v>364</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9606,7 +9602,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9621,7 +9617,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>369</v>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -772,6 +772,18 @@
     &lt;code value="assess-plan"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>CarePlan.category:what-matters</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters observation category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
   </si>
   <si>
     <t>CarePlan.title</t>
@@ -1907,7 +1919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4712,9 +4724,11 @@
         <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4726,7 +4740,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -4735,16 +4749,20 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4768,13 +4786,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4792,13 +4808,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4813,7 +4829,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4821,10 +4837,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4850,15 +4866,13 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4906,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4927,7 +4941,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4935,24 +4949,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -4961,17 +4975,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5020,10 +5034,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5035,38 +5049,38 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5075,18 +5089,18 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5134,10 +5148,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5149,28 +5163,28 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5189,20 +5203,18 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5250,7 +5262,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5265,28 +5277,28 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5305,16 +5317,20 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5362,7 +5378,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5377,28 +5393,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5417,17 +5433,15 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5476,7 +5490,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5491,13 +5505,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5505,10 +5519,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5519,7 +5533,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5528,19 +5542,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5590,13 +5604,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5605,13 +5619,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5645,18 +5659,18 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5719,13 +5733,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5733,10 +5747,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5756,22 +5770,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5820,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5835,24 +5847,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5872,22 +5884,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5936,7 +5948,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5951,24 +5963,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5976,13 +5988,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -5991,19 +6003,19 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6040,17 +6052,19 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6065,28 +6079,26 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6107,19 +6119,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6156,19 +6168,17 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6186,13 +6196,13 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -6200,9 +6210,11 @@
         <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6223,17 +6235,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6282,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6294,27 +6308,27 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6322,10 +6336,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6337,16 +6351,18 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6394,25 +6410,25 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6423,21 +6439,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6449,17 +6465,15 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6508,19 +6522,19 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6537,14 +6551,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6557,26 +6571,24 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6624,7 +6636,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6642,7 +6654,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6653,14 +6665,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6673,13 +6685,13 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>351</v>
@@ -6688,9 +6700,11 @@
         <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6714,13 +6728,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6738,7 +6752,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6750,13 +6764,13 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6767,10 +6781,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6793,20 +6807,18 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6830,13 +6842,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6854,7 +6866,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6869,10 +6881,10 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6883,10 +6895,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6909,19 +6921,19 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6985,24 +6997,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7010,13 +7022,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7025,19 +7037,19 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7086,39 +7098,39 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7126,13 +7138,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7141,17 +7153,19 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7200,7 +7214,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7209,16 +7223,16 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7229,10 +7243,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7243,7 +7257,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7255,16 +7269,18 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>127</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7312,7 +7328,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7321,16 +7337,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>387</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7341,21 +7357,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7367,17 +7383,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7426,19 +7440,19 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7455,14 +7469,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7475,26 +7489,24 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O49" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7542,7 +7554,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7560,7 +7572,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7571,43 +7583,45 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7632,13 +7646,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7656,25 +7670,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7685,10 +7699,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7699,7 +7713,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7711,17 +7725,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>183</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7746,13 +7760,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7770,13 +7784,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7785,10 +7799,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>186</v>
+        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7825,19 +7839,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7901,7 +7913,7 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>186</v>
@@ -7915,10 +7927,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7929,7 +7941,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -7941,19 +7953,19 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7978,13 +7990,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8002,13 +8014,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8017,24 +8029,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8045,7 +8057,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8060,15 +8072,17 @@
         <v>228</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8095,10 +8109,10 @@
         <v>233</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8116,13 +8130,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8131,24 +8145,24 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8171,16 +8185,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8206,13 +8220,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8230,7 +8244,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8245,7 +8259,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8259,10 +8273,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8285,7 +8299,7 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>423</v>
@@ -8293,10 +8307,10 @@
       <c r="M56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>425</v>
       </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8344,7 +8358,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8359,10 +8373,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8384,22 +8398,22 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>427</v>
@@ -8407,11 +8421,9 @@
       <c r="M57" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8436,13 +8448,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8463,10 +8475,10 @@
         <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8475,24 +8487,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8500,7 +8512,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8509,24 +8521,26 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8550,13 +8564,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8574,10 +8588,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8589,24 +8603,24 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8623,32 +8637,28 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8692,7 +8702,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8707,10 +8717,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8731,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8741,28 +8751,32 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8806,7 +8820,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8821,24 +8835,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>275</v>
+        <v>452</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8861,19 +8875,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8922,7 +8934,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8937,24 +8949,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8965,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -8977,19 +8989,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9038,13 +9050,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9053,24 +9065,24 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9081,7 +9093,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9093,16 +9105,20 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9126,13 +9142,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9150,13 +9166,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9165,28 +9181,28 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9205,18 +9221,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9240,13 +9254,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9264,7 +9278,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9282,25 +9296,25 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9319,16 +9333,18 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9376,7 +9392,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9394,21 +9410,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9431,13 +9447,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>125</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9488,7 +9504,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9506,13 +9522,13 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9531,7 +9547,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9543,7 +9559,7 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>498</v>
@@ -9552,9 +9568,7 @@
         <v>499</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>500</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9608,7 +9622,7 @@
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -9617,20 +9631,134 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>370</v>
+      <c r="B68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9640,7 +9768,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,16 +774,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>CarePlan.category:what-matters</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters observation category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
+    <t>CarePlan.category:well-being</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
   </si>
   <si>
     <t>CarePlan.title</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -783,7 +783,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>CarePlan.title</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,16 +774,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>CarePlan.category:well-being</t>
-  </si>
-  <si>
-    <t>well-being</t>
-  </si>
-  <si>
-    <t>Well-Being resource category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
+    <t>CarePlan.category:pco</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Person-Centered resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-categories</t>
   </si>
   <si>
     <t>CarePlan.title</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-plan.xlsx
+++ b/StructureDefinition-pco-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
